--- a/Modelagens/Group Med.xlsx
+++ b/Modelagens/Group Med.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F238CAE9-CA50-4FD5-9693-4783C6EBB0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guica\Desktop\MedGroup\Modelagens\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC712A92-CEA8-408C-B1AA-83DAA7CF14C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Clinica</t>
   </si>
@@ -191,9 +196,6 @@
   </si>
   <si>
     <t>Paciente com dor no corpo</t>
-  </si>
-  <si>
-    <t>Paciente com dor na perna</t>
   </si>
   <si>
     <t>Especialidade</t>
@@ -221,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +386,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -682,11 +684,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -704,7 +706,7 @@
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -724,7 +726,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -807,7 +809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -827,7 +829,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -871,9 +873,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -915,9 +917,9 @@
         <v>45626492836</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -959,7 +961,8 @@
         <v>45626436732</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -979,7 +982,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>101</v>
@@ -1052,7 +1055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <v>2</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>202</v>
@@ -1082,56 +1085,44 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>303</v>
-      </c>
-      <c r="M14" s="11">
-        <v>44508</v>
-      </c>
-      <c r="N14" s="7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="B15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>101</v>
@@ -1140,20 +1131,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
